--- a/teaching/traditional_assets/database/data/sweden/sweden_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_semiconductor.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.1157789447361841</v>
+        <v>-0.2896655770681418</v>
       </c>
       <c r="H2">
-        <v>-0.1157789447361841</v>
+        <v>-0.2896655770681418</v>
       </c>
       <c r="I2">
-        <v>-0.3520880220055014</v>
+        <v>-0.3238622076942418</v>
       </c>
       <c r="J2">
-        <v>-0.3520880220055014</v>
+        <v>-0.3238622076942418</v>
       </c>
       <c r="K2">
-        <v>-1.281</v>
+        <v>-1.705</v>
       </c>
       <c r="L2">
-        <v>-0.3203300825206302</v>
+        <v>-0.428715111893387</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,61 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.8080000000000001</v>
+        <v>2.78</v>
       </c>
       <c r="V2">
-        <v>0.06526655896607432</v>
+        <v>0.2291838417147568</v>
+      </c>
+      <c r="W2">
+        <v>-1.165041765287849</v>
       </c>
       <c r="X2">
-        <v>0.1011055960110447</v>
+        <v>0.0779842447179491</v>
+      </c>
+      <c r="Y2">
+        <v>-1.243026010005798</v>
       </c>
       <c r="Z2">
-        <v>1.5996</v>
+        <v>2.672715053763441</v>
+      </c>
+      <c r="AA2">
+        <v>3.001183140718023</v>
       </c>
       <c r="AB2">
-        <v>0.09875533925029276</v>
+        <v>0.07685084961221987</v>
+      </c>
+      <c r="AC2">
+        <v>2.924332291105803</v>
       </c>
       <c r="AD2">
-        <v>0.387</v>
+        <v>0.212</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.387</v>
+        <v>0.212</v>
       </c>
       <c r="AG2">
-        <v>-0.421</v>
+        <v>-2.568</v>
       </c>
       <c r="AH2">
-        <v>0.0303125244771677</v>
+        <v>0.01717711878139686</v>
       </c>
       <c r="AI2">
-        <v>0.1685540069686411</v>
+        <v>0.05502206073189722</v>
       </c>
       <c r="AJ2">
-        <v>-0.03520361234216908</v>
+        <v>-0.2685630621208952</v>
       </c>
       <c r="AK2">
-        <v>-0.2829301075268817</v>
+        <v>-2.393289841565702</v>
       </c>
       <c r="AL2">
-        <v>0.027</v>
+        <v>0.061</v>
       </c>
       <c r="AM2">
-        <v>-0.021</v>
+        <v>0.06</v>
       </c>
       <c r="AN2">
-        <v>-0.3128536782538399</v>
+        <v>-0.2009478672985782</v>
       </c>
       <c r="AO2">
-        <v>-52.14814814814815</v>
+        <v>-21.11475409836065</v>
       </c>
       <c r="AP2">
-        <v>0.3403395311236864</v>
+        <v>2.434123222748815</v>
       </c>
       <c r="AQ2">
-        <v>67.04761904761905</v>
+        <v>-21.46666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -695,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vadsbo SwitchTech Group AB (publ) (NGM:VADS)</t>
+          <t>Industrial Solar Holding Europe AB (NGM:ISHE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -704,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.01788856304985337</v>
+        <v>-8.025641025641026</v>
       </c>
       <c r="H3">
-        <v>0.01788856304985337</v>
+        <v>-8.025641025641026</v>
       </c>
       <c r="I3">
-        <v>-0.08445747800586509</v>
+        <v>-9.829059829059828</v>
       </c>
       <c r="J3">
-        <v>-0.08445747800586509</v>
+        <v>-9.829059829059828</v>
       </c>
       <c r="K3">
-        <v>-0.211</v>
+        <v>-1.2</v>
       </c>
       <c r="L3">
-        <v>-0.06187683284457478</v>
+        <v>-10.25641025641026</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -743,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.3861111111111111</v>
       </c>
       <c r="W3">
-        <v>-0.1271084337349398</v>
+        <v>-1.938610662358643</v>
       </c>
       <c r="X3">
-        <v>0.1034729256529905</v>
+        <v>0.07712332527260096</v>
       </c>
       <c r="Y3">
-        <v>-0.2305813593879302</v>
+        <v>-2.015733987631244</v>
       </c>
       <c r="Z3">
-        <v>1.364</v>
+        <v>-0.6190476190476188</v>
       </c>
       <c r="AA3">
-        <v>-0.1152</v>
+        <v>6.084656084656082</v>
       </c>
       <c r="AB3">
-        <v>0.09877241213148651</v>
+        <v>0.07693059334984469</v>
       </c>
       <c r="AC3">
-        <v>-0.2139724121314865</v>
+        <v>6.007725491306237</v>
       </c>
       <c r="AD3">
-        <v>0.387</v>
+        <v>0.031</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.387</v>
+        <v>0.031</v>
       </c>
       <c r="AG3">
-        <v>0.387</v>
+        <v>-2.749</v>
       </c>
       <c r="AH3">
-        <v>0.07040203747498636</v>
+        <v>0.004287097220301479</v>
       </c>
       <c r="AI3">
-        <v>0.2307692307692308</v>
+        <v>0.0112278160086925</v>
       </c>
       <c r="AJ3">
-        <v>0.07040203747498636</v>
+        <v>-0.6176140193215006</v>
       </c>
       <c r="AK3">
-        <v>0.2307692307692308</v>
+        <v>144.6842105263182</v>
       </c>
       <c r="AL3">
-        <v>0.022</v>
+        <v>0.049</v>
       </c>
       <c r="AM3">
-        <v>0.021</v>
+        <v>0.049</v>
       </c>
       <c r="AN3">
-        <v>-2.63265306122449</v>
+        <v>-0.0287037037037037</v>
       </c>
       <c r="AO3">
-        <v>-13.09090909090909</v>
+        <v>-23.46938775510204</v>
       </c>
       <c r="AP3">
-        <v>-2.63265306122449</v>
+        <v>2.54537037037037</v>
       </c>
       <c r="AQ3">
-        <v>-13.71428571428572</v>
+        <v>-23.46938775510204</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Industrial Solar Holding Europe AB (NGM:ISHE)</t>
+          <t>Vadsbo SwitchTech Group AB (publ) (NGM:VADS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -829,22 +841,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.8896434634974534</v>
+        <v>-0.05518134715025907</v>
       </c>
       <c r="H4">
-        <v>-0.8896434634974534</v>
+        <v>-0.05518134715025907</v>
       </c>
       <c r="I4">
-        <v>-1.901528013582343</v>
+        <v>-0.03575129533678757</v>
       </c>
       <c r="J4">
-        <v>-1.901528013582343</v>
+        <v>-0.03575129533678757</v>
       </c>
       <c r="K4">
-        <v>-1.07</v>
+        <v>-0.505</v>
       </c>
       <c r="L4">
-        <v>-1.816638370118846</v>
+        <v>-0.1308290155440414</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -868,58 +880,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.1111416781292985</v>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-0.3914728682170542</v>
       </c>
       <c r="X4">
-        <v>0.09873826636909901</v>
+        <v>0.07884516416329723</v>
+      </c>
+      <c r="Y4">
+        <v>-0.4703180323803515</v>
+      </c>
+      <c r="Z4">
+        <v>2.301729278473464</v>
+      </c>
+      <c r="AA4">
+        <v>-0.08228980322003578</v>
       </c>
       <c r="AB4">
-        <v>0.09873826636909901</v>
+        <v>0.07677110587459506</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1590609090946308</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AG4">
-        <v>-0.8080000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.03541381334376834</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.1657509157509157</v>
       </c>
       <c r="AJ4">
-        <v>-0.1250386877127824</v>
+        <v>0.03541381334376834</v>
       </c>
       <c r="AK4">
-        <v>4.275132275132274</v>
+        <v>0.1657509157509157</v>
       </c>
       <c r="AL4">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="AM4">
-        <v>-0.042</v>
+        <v>0.011</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>7.239999999999999</v>
       </c>
       <c r="AO4">
-        <v>-224</v>
+        <v>-11.5</v>
       </c>
       <c r="AP4">
-        <v>0.7412844036697248</v>
+        <v>7.239999999999999</v>
       </c>
       <c r="AQ4">
-        <v>26.66666666666667</v>
+        <v>-12.54545454545455</v>
       </c>
     </row>
   </sheetData>
